--- a/src/data/atoinga.xlsx
+++ b/src/data/atoinga.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_toyo/toyo_iiif/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamurasatoru/git/d_toyo/iiif/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0EC986-D50A-2940-B240-039DDD70C4EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA25BA-872C-A84B-952C-1A0AA0AABA3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
